--- a/Product_Backlog/ProductBacklog.xlsx
+++ b/Product_Backlog/ProductBacklog.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alfie\Documents\GitHub\Team17\Product_Backlog\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8312FF-491B-4484-A279-DBF196EA2D86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -151,27 +160,34 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -181,7 +197,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -197,71 +213,57 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -451,25 +453,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="46.0"/>
-    <col customWidth="1" min="3" max="3" width="40.14"/>
+    <col min="2" max="2" width="46" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,7 +499,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -503,19 +510,19 @@
         <v>9</v>
       </c>
       <c r="D2" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E2" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F2" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -526,19 +533,19 @@
         <v>12</v>
       </c>
       <c r="D3" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="E3" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F3" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -549,19 +556,19 @@
         <v>12</v>
       </c>
       <c r="D4" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="E4" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F4" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -572,19 +579,19 @@
         <v>15</v>
       </c>
       <c r="D5" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="E5" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F5" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -595,19 +602,19 @@
         <v>17</v>
       </c>
       <c r="D6" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="E6" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F6" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -618,19 +625,19 @@
         <v>9</v>
       </c>
       <c r="D7" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E7" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F7" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
@@ -641,19 +648,19 @@
         <v>20</v>
       </c>
       <c r="D8" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E8" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F8" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
@@ -664,19 +671,19 @@
         <v>22</v>
       </c>
       <c r="D9" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E9" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F9" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
@@ -687,19 +694,19 @@
         <v>24</v>
       </c>
       <c r="D10" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E10" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F10" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>18</v>
       </c>
@@ -710,19 +717,19 @@
         <v>26</v>
       </c>
       <c r="D11" s="8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E11" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F11" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
@@ -733,19 +740,19 @@
         <v>12</v>
       </c>
       <c r="D12" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E12" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F12" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>18</v>
       </c>
@@ -756,20 +763,20 @@
         <v>30</v>
       </c>
       <c r="D13" s="12">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E13" s="12">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F13" s="12">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>27</v>
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>18</v>
       </c>
@@ -780,20 +787,20 @@
         <v>32</v>
       </c>
       <c r="D14" s="12">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E14" s="12">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F14" s="12">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>27</v>
       </c>
       <c r="H14" s="11"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>18</v>
       </c>
@@ -804,20 +811,20 @@
         <v>34</v>
       </c>
       <c r="D15" s="12">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E15" s="12">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F15" s="12">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H15" s="11"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>18</v>
       </c>
@@ -828,19 +835,19 @@
         <v>36</v>
       </c>
       <c r="D16" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E16" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F16" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>18</v>
       </c>
@@ -851,19 +858,19 @@
         <v>38</v>
       </c>
       <c r="D17" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E17" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F17" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>18</v>
       </c>
@@ -874,19 +881,19 @@
         <v>40</v>
       </c>
       <c r="D18" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E18" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F18" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
@@ -897,19 +904,19 @@
         <v>42</v>
       </c>
       <c r="D19" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E19" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F19" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
@@ -920,22 +927,21 @@
         <v>44</v>
       </c>
       <c r="D20" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E20" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F20" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>27</v>
+        <v>2</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="1" horizontalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup fitToHeight="0" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId1"/>
+  <printOptions horizontalCentered="1" gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
 </worksheet>
 </file>
--- a/Product_Backlog/ProductBacklog.xlsx
+++ b/Product_Backlog/ProductBacklog.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alfie\Documents\GitHub\Team17\Product_Backlog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruthcarnegie\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8312FF-491B-4484-A279-DBF196EA2D86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="53">
   <si>
     <t>As an....</t>
   </si>
@@ -155,12 +154,36 @@
   </si>
   <si>
     <t>I can access the site from mobile</t>
+  </si>
+  <si>
+    <t>I can navigate the website from one modular page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can easily use and navigate through the search features. </t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Not yet started</t>
+  </si>
+  <si>
+    <t>I can search for any information I require from a single entity</t>
+  </si>
+  <si>
+    <t>I can view the results in a concise and meaningful way.</t>
+  </si>
+  <si>
+    <t>I can set a maximum price for procedure search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can see options within my budget. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -192,7 +215,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,6 +234,12 @@
         <bgColor rgb="FF00FFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -224,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -234,7 +263,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -245,12 +273,20 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FFFF"/>
+      <color rgb="FF00CCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -459,21 +495,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" customWidth="1"/>
+    <col min="2" max="2" width="52.140625" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -639,24 +675,24 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="6">
-        <v>7</v>
-      </c>
-      <c r="E8" s="6">
-        <v>5</v>
-      </c>
-      <c r="F8" s="6">
-        <v>1</v>
-      </c>
-      <c r="G8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="11">
+        <v>6</v>
+      </c>
+      <c r="E8" s="11">
+        <v>6</v>
+      </c>
+      <c r="F8" s="11">
+        <v>1</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -665,10 +701,10 @@
         <v>18</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="6">
         <v>7</v>
@@ -702,148 +738,148 @@
       <c r="F10" s="6">
         <v>1</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="11">
+        <v>6</v>
+      </c>
+      <c r="E11" s="11">
+        <v>6</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="10">
+        <v>3</v>
+      </c>
+      <c r="E12" s="10">
+        <v>4</v>
+      </c>
+      <c r="F12" s="10">
+        <v>2</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="10">
+        <v>8</v>
+      </c>
+      <c r="E13" s="10">
+        <v>5</v>
+      </c>
+      <c r="F13" s="10">
+        <v>1</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="8">
-        <v>6</v>
-      </c>
-      <c r="E11" s="8">
+      <c r="D14" s="7">
+        <v>6</v>
+      </c>
+      <c r="E14" s="7">
         <v>4</v>
       </c>
-      <c r="F11" s="8">
-        <v>2</v>
-      </c>
-      <c r="G11" s="9" t="s">
+      <c r="F14" s="7">
+        <v>2</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="4">
-        <v>6</v>
-      </c>
-      <c r="E12" s="4">
-        <v>6</v>
-      </c>
-      <c r="F12" s="4">
-        <v>1</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="11" t="s">
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="12">
-        <v>6</v>
-      </c>
-      <c r="E13" s="12">
-        <v>6</v>
-      </c>
-      <c r="F13" s="12">
-        <v>2</v>
-      </c>
-      <c r="G13" s="9" t="s">
+      <c r="D15" s="11">
+        <v>6</v>
+      </c>
+      <c r="E15" s="11">
+        <v>6</v>
+      </c>
+      <c r="F15" s="11">
+        <v>2</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="11"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="12">
-        <v>6</v>
-      </c>
-      <c r="E14" s="12">
-        <v>6</v>
-      </c>
-      <c r="F14" s="12">
-        <v>2</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="12">
-        <v>6</v>
-      </c>
-      <c r="E15" s="12">
-        <v>6</v>
-      </c>
-      <c r="F15" s="12">
-        <v>1</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="11"/>
+      <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="6">
-        <v>5</v>
-      </c>
-      <c r="E16" s="6">
-        <v>5</v>
-      </c>
-      <c r="F16" s="6">
-        <v>2</v>
-      </c>
-      <c r="G16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="11">
+        <v>6</v>
+      </c>
+      <c r="E16" s="11">
+        <v>6</v>
+      </c>
+      <c r="F16" s="11">
+        <v>2</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -852,13 +888,13 @@
         <v>18</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D17" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E17" s="6">
         <v>5</v>
@@ -866,7 +902,7 @@
       <c r="F17" s="6">
         <v>2</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -875,21 +911,21 @@
         <v>18</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D18" s="6">
         <v>4</v>
       </c>
       <c r="E18" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F18" s="6">
         <v>2</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -898,21 +934,21 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D19" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E19" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F19" s="6">
         <v>2</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="12" t="s">
         <v>27</v>
       </c>
     </row>
@@ -921,25 +957,97 @@
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D20" s="6">
         <v>3</v>
       </c>
       <c r="E20" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F20" s="6">
         <v>2</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>10</v>
+      <c r="G20" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="10">
+        <v>9</v>
+      </c>
+      <c r="E21" s="10">
+        <v>7</v>
+      </c>
+      <c r="F21" s="10">
+        <v>2</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="10">
+        <v>8</v>
+      </c>
+      <c r="E22" s="10">
+        <v>6</v>
+      </c>
+      <c r="F22" s="10">
+        <v>2</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="10">
+        <v>5</v>
+      </c>
+      <c r="E23" s="10">
+        <v>6</v>
+      </c>
+      <c r="F23" s="10">
+        <v>2</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:G21">
+    <sortCondition ref="G10"/>
+  </sortState>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>

--- a/Product_Backlog/ProductBacklog.xlsx
+++ b/Product_Backlog/ProductBacklog.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruthcarnegie\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruthc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D2C22E-9C9B-4883-9A06-0CFE3A75F6FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
+    <workbookView xWindow="-7140" yWindow="-120" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,9 +97,6 @@
     <t>I can plan a route and visualise the location</t>
   </si>
   <si>
-    <t>add location information to the app</t>
-  </si>
-  <si>
     <t>customise my current live location</t>
   </si>
   <si>
@@ -178,12 +176,15 @@
   </si>
   <si>
     <t xml:space="preserve">I can see options within my budget. </t>
+  </si>
+  <si>
+    <t>Add location information to the app</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -215,7 +216,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,6 +241,12 @@
         <bgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -253,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -275,6 +282,8 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,15 +504,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -512,7 +521,7 @@
     <col min="3" max="3" width="49.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -535,7 +544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -558,7 +567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -581,7 +590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -604,7 +613,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -627,7 +636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -650,7 +659,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -673,12 +682,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>12</v>
@@ -696,7 +705,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
@@ -719,7 +728,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
@@ -742,15 +751,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>34</v>
       </c>
       <c r="D11" s="11">
         <v>6</v>
@@ -765,15 +774,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="D12" s="10">
         <v>3</v>
@@ -788,7 +797,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>18</v>
       </c>
@@ -808,116 +817,116 @@
         <v>1</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="7" t="s">
+    <row r="14" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="10">
+        <v>9</v>
+      </c>
+      <c r="E14" s="10">
+        <v>7</v>
+      </c>
+      <c r="F14" s="10">
+        <v>2</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="11">
+        <v>6</v>
+      </c>
+      <c r="E15" s="11">
+        <v>6</v>
+      </c>
+      <c r="F15" s="11">
+        <v>2</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D16" s="7">
+        <v>6</v>
+      </c>
+      <c r="E16" s="7">
+        <v>4</v>
+      </c>
+      <c r="F16" s="7">
+        <v>2</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="7">
-        <v>6</v>
-      </c>
-      <c r="E14" s="7">
-        <v>4</v>
-      </c>
-      <c r="F14" s="7">
-        <v>2</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="10" t="s">
+    </row>
+    <row r="17" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="11">
-        <v>6</v>
-      </c>
-      <c r="E15" s="11">
-        <v>6</v>
-      </c>
-      <c r="F15" s="11">
-        <v>2</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="11">
-        <v>6</v>
-      </c>
-      <c r="E16" s="11">
-        <v>6</v>
-      </c>
-      <c r="F16" s="11">
-        <v>2</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="D17" s="11">
+        <v>6</v>
+      </c>
+      <c r="E17" s="11">
+        <v>6</v>
+      </c>
+      <c r="F17" s="11">
+        <v>2</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="6">
+      <c r="D18" s="6">
         <v>5</v>
-      </c>
-      <c r="E17" s="6">
-        <v>5</v>
-      </c>
-      <c r="F17" s="6">
-        <v>2</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="6">
-        <v>4</v>
       </c>
       <c r="E18" s="6">
         <v>5</v>
@@ -926,53 +935,53 @@
         <v>2</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D19" s="6">
         <v>4</v>
       </c>
       <c r="E19" s="6">
+        <v>5</v>
+      </c>
+      <c r="F19" s="6">
+        <v>2</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="6">
         <v>4</v>
       </c>
-      <c r="F19" s="6">
-        <v>2</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="6">
-        <v>3</v>
-      </c>
       <c r="E20" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F20" s="6">
         <v>2</v>
       </c>
-      <c r="G20" s="8" t="s">
-        <v>27</v>
+      <c r="G20" s="12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -980,22 +989,22 @@
         <v>18</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D21" s="10">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E21" s="10">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F21" s="10">
         <v>2</v>
       </c>
-      <c r="G21" s="14" t="s">
-        <v>48</v>
+      <c r="G21" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1003,10 +1012,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>50</v>
       </c>
       <c r="D22" s="10">
         <v>8</v>
@@ -1018,7 +1027,7 @@
         <v>2</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1026,10 +1035,10 @@
         <v>18</v>
       </c>
       <c r="B23" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>52</v>
       </c>
       <c r="D23" s="10">
         <v>5</v>
@@ -1041,12 +1050,16 @@
         <v>2</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>27</v>
-      </c>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
     </row>
   </sheetData>
-  <sortState ref="A2:G21">
-    <sortCondition ref="G10"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G23">
+    <sortCondition ref="G17"/>
   </sortState>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
